--- a/InputData/io-model/HSR/Household Savings Rate.xlsx
+++ b/InputData/io-model/HSR/Household Savings Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/hsr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\MT\io-model\HSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FDDC7A-7721-B343-9D66-FEE926E1D134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FDE489D-4CF9-4E75-92B3-7BBE4C1C21FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="1640" windowWidth="24100" windowHeight="14880" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
+    <workbookView xWindow="1170" yWindow="375" windowWidth="13680" windowHeight="17025" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>HSR Household Savings Rate</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>pandemic in early 2020.</t>
+  </si>
+  <si>
+    <t>Montana</t>
   </si>
 </sst>
 </file>
@@ -506,17 +509,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
       <c r="C1" s="8">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -539,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -597,11 +603,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0689169-21E6-4EF2-964C-014C1F814EBE}">
   <dimension ref="A1:B751"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A637" workbookViewId="0">
+      <selection activeCell="A648" sqref="A648:XFD648"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -6587,11 +6595,13 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -6604,8 +6614,8 @@
         <v>11</v>
       </c>
       <c r="B2" s="7">
-        <f>AVERAGE(Data!B504:B743)/100</f>
-        <v>6.0595833333333321E-2</v>
+        <f>AVERAGE(Data!B648:B743)/100</f>
+        <v>7.4447916666666669E-2</v>
       </c>
     </row>
   </sheetData>
